--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.3728493329462</v>
+        <v>51.873844</v>
       </c>
       <c r="H2">
-        <v>17.3728493329462</v>
+        <v>155.621532</v>
       </c>
       <c r="I2">
-        <v>0.7885828144843822</v>
+        <v>0.9152980296207101</v>
       </c>
       <c r="J2">
-        <v>0.7885828144843822</v>
+        <v>0.9152980296207101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.75648255270345</v>
+        <v>4.807635</v>
       </c>
       <c r="N2">
-        <v>4.75648255270345</v>
+        <v>14.422905</v>
       </c>
       <c r="O2">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="P2">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="Q2">
-        <v>82.63365474290437</v>
+        <v>249.39050799894</v>
       </c>
       <c r="R2">
-        <v>82.63365474290437</v>
+        <v>2244.51457199046</v>
       </c>
       <c r="S2">
-        <v>0.1292750820885253</v>
+        <v>0.1500923625722455</v>
       </c>
       <c r="T2">
-        <v>0.1292750820885253</v>
+        <v>0.1500923625722455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.3728493329462</v>
+        <v>51.873844</v>
       </c>
       <c r="H3">
-        <v>17.3728493329462</v>
+        <v>155.621532</v>
       </c>
       <c r="I3">
-        <v>0.7885828144843822</v>
+        <v>0.9152980296207101</v>
       </c>
       <c r="J3">
-        <v>0.7885828144843822</v>
+        <v>0.9152980296207101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.636920038489</v>
+        <v>18.86426066666667</v>
       </c>
       <c r="N3">
-        <v>18.636920038489</v>
+        <v>56.592782</v>
       </c>
       <c r="O3">
-        <v>0.6423263639235793</v>
+        <v>0.643434534959602</v>
       </c>
       <c r="P3">
-        <v>0.6423263639235793</v>
+        <v>0.6434345349596021</v>
       </c>
       <c r="Q3">
-        <v>323.7764038588352</v>
+        <v>978.5617149980027</v>
       </c>
       <c r="R3">
-        <v>323.7764038588352</v>
+        <v>8807.055434982025</v>
       </c>
       <c r="S3">
-        <v>0.5065275318803757</v>
+        <v>0.5889343620384416</v>
       </c>
       <c r="T3">
-        <v>0.5065275318803757</v>
+        <v>0.5889343620384417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.3728493329462</v>
+        <v>51.873844</v>
       </c>
       <c r="H4">
-        <v>17.3728493329462</v>
+        <v>155.621532</v>
       </c>
       <c r="I4">
-        <v>0.7885828144843822</v>
+        <v>0.9152980296207101</v>
       </c>
       <c r="J4">
-        <v>0.7885828144843822</v>
+        <v>0.9152980296207101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.62131809479565</v>
+        <v>5.646177333333333</v>
       </c>
       <c r="N4">
-        <v>5.62131809479565</v>
+        <v>16.938532</v>
       </c>
       <c r="O4">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="P4">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="Q4">
-        <v>97.658312313449</v>
+        <v>292.8889221856693</v>
       </c>
       <c r="R4">
-        <v>97.658312313449</v>
+        <v>2636.000299671024</v>
       </c>
       <c r="S4">
-        <v>0.1527802005154811</v>
+        <v>0.1762713050100228</v>
       </c>
       <c r="T4">
-        <v>0.1527802005154811</v>
+        <v>0.1762713050100228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.94695676816665</v>
+        <v>3.0716</v>
       </c>
       <c r="H5">
-        <v>2.94695676816665</v>
+        <v>9.2148</v>
       </c>
       <c r="I5">
-        <v>0.1337673180643736</v>
+        <v>0.05419743768715064</v>
       </c>
       <c r="J5">
-        <v>0.1337673180643736</v>
+        <v>0.05419743768715064</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.75648255270345</v>
+        <v>4.807635</v>
       </c>
       <c r="N5">
-        <v>4.75648255270345</v>
+        <v>14.422905</v>
       </c>
       <c r="O5">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="P5">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="Q5">
-        <v>14.01714845135602</v>
+        <v>14.767131666</v>
       </c>
       <c r="R5">
-        <v>14.01714845135602</v>
+        <v>132.904184994</v>
       </c>
       <c r="S5">
-        <v>0.02192893467357734</v>
+        <v>0.008887401922188558</v>
       </c>
       <c r="T5">
-        <v>0.02192893467357734</v>
+        <v>0.008887401922188558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.94695676816665</v>
+        <v>3.0716</v>
       </c>
       <c r="H6">
-        <v>2.94695676816665</v>
+        <v>9.2148</v>
       </c>
       <c r="I6">
-        <v>0.1337673180643736</v>
+        <v>0.05419743768715064</v>
       </c>
       <c r="J6">
-        <v>0.1337673180643736</v>
+        <v>0.05419743768715064</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.636920038489</v>
+        <v>18.86426066666667</v>
       </c>
       <c r="N6">
-        <v>18.636920038489</v>
+        <v>56.592782</v>
       </c>
       <c r="O6">
-        <v>0.6423263639235793</v>
+        <v>0.643434534959602</v>
       </c>
       <c r="P6">
-        <v>0.6423263639235793</v>
+        <v>0.6434345349596021</v>
       </c>
       <c r="Q6">
-        <v>54.92219764520582</v>
+        <v>57.94346306373333</v>
       </c>
       <c r="R6">
-        <v>54.92219764520582</v>
+        <v>521.4911675736</v>
       </c>
       <c r="S6">
-        <v>0.08592227502409805</v>
+        <v>0.03487250311423378</v>
       </c>
       <c r="T6">
-        <v>0.08592227502409805</v>
+        <v>0.03487250311423379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.94695676816665</v>
+        <v>3.0716</v>
       </c>
       <c r="H7">
-        <v>2.94695676816665</v>
+        <v>9.2148</v>
       </c>
       <c r="I7">
-        <v>0.1337673180643736</v>
+        <v>0.05419743768715064</v>
       </c>
       <c r="J7">
-        <v>0.1337673180643736</v>
+        <v>0.05419743768715064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.62131809479565</v>
+        <v>5.646177333333333</v>
       </c>
       <c r="N7">
-        <v>5.62131809479565</v>
+        <v>16.938532</v>
       </c>
       <c r="O7">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="P7">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="Q7">
-        <v>16.5657814054757</v>
+        <v>17.34279829706667</v>
       </c>
       <c r="R7">
-        <v>16.5657814054757</v>
+        <v>156.0851846736</v>
       </c>
       <c r="S7">
-        <v>0.02591610836669824</v>
+        <v>0.0104375326507283</v>
       </c>
       <c r="T7">
-        <v>0.02591610836669824</v>
+        <v>0.0104375326507283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.71066300606076</v>
+        <v>1.728822</v>
       </c>
       <c r="H8">
-        <v>1.71066300606076</v>
+        <v>5.186466</v>
       </c>
       <c r="I8">
-        <v>0.07764986745124416</v>
+        <v>0.03050453269213933</v>
       </c>
       <c r="J8">
-        <v>0.07764986745124416</v>
+        <v>0.03050453269213932</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.75648255270345</v>
+        <v>4.807635</v>
       </c>
       <c r="N8">
-        <v>4.75648255270345</v>
+        <v>14.422905</v>
       </c>
       <c r="O8">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="P8">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="Q8">
-        <v>8.13673874188324</v>
+        <v>8.31154515597</v>
       </c>
       <c r="R8">
-        <v>8.13673874188324</v>
+        <v>74.80390640373001</v>
       </c>
       <c r="S8">
-        <v>0.01272940876284022</v>
+        <v>0.005002192982784825</v>
       </c>
       <c r="T8">
-        <v>0.01272940876284022</v>
+        <v>0.005002192982784825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.71066300606076</v>
+        <v>1.728822</v>
       </c>
       <c r="H9">
-        <v>1.71066300606076</v>
+        <v>5.186466</v>
       </c>
       <c r="I9">
-        <v>0.07764986745124416</v>
+        <v>0.03050453269213933</v>
       </c>
       <c r="J9">
-        <v>0.07764986745124416</v>
+        <v>0.03050453269213932</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.636920038489</v>
+        <v>18.86426066666667</v>
       </c>
       <c r="N9">
-        <v>18.636920038489</v>
+        <v>56.592782</v>
       </c>
       <c r="O9">
-        <v>0.6423263639235793</v>
+        <v>0.643434534959602</v>
       </c>
       <c r="P9">
-        <v>0.6423263639235793</v>
+        <v>0.6434345349596021</v>
       </c>
       <c r="Q9">
-        <v>31.8814896567556</v>
+        <v>32.612948854268</v>
       </c>
       <c r="R9">
-        <v>31.8814896567556</v>
+        <v>293.516539688412</v>
       </c>
       <c r="S9">
-        <v>0.04987655701910556</v>
+        <v>0.01962766980692664</v>
       </c>
       <c r="T9">
-        <v>0.04987655701910556</v>
+        <v>0.01962766980692664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.71066300606076</v>
+        <v>1.728822</v>
       </c>
       <c r="H10">
-        <v>1.71066300606076</v>
+        <v>5.186466</v>
       </c>
       <c r="I10">
-        <v>0.07764986745124416</v>
+        <v>0.03050453269213933</v>
       </c>
       <c r="J10">
-        <v>0.07764986745124416</v>
+        <v>0.03050453269213932</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.62131809479565</v>
+        <v>5.646177333333333</v>
       </c>
       <c r="N10">
-        <v>5.62131809479565</v>
+        <v>16.938532</v>
       </c>
       <c r="O10">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="P10">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="Q10">
-        <v>9.61618091006687</v>
+        <v>9.761235589768001</v>
       </c>
       <c r="R10">
-        <v>9.61618091006687</v>
+        <v>87.851120307912</v>
       </c>
       <c r="S10">
-        <v>0.01504390166929838</v>
+        <v>0.005874669902427854</v>
       </c>
       <c r="T10">
-        <v>0.01504390166929838</v>
+        <v>0.005874669902427853</v>
       </c>
     </row>
   </sheetData>
